--- a/empaticadata/test_timing.xlsx
+++ b/empaticadata/test_timing.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amorrison/Projects/hand_sensor_test/empaticadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8E463A0-8483-C947-93A7-18672463CA7C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5F5DA5C-4412-E644-A4E7-5AF93A38A638}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="960" windowWidth="27640" windowHeight="16540" xr2:uid="{A4192B90-8BBE-374E-A1A1-0A1825EECE03}"/>
+    <workbookView xWindow="-50520" yWindow="-10340" windowWidth="27840" windowHeight="26740" xr2:uid="{A4192B90-8BBE-374E-A1A1-0A1825EECE03}"/>
   </bookViews>
   <sheets>
     <sheet name="exp_session" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="23">
   <si>
     <t>Activity Start</t>
   </si>
@@ -93,10 +93,13 @@
     <t>Group disc</t>
   </si>
   <si>
-    <t>Climate question</t>
+    <t>Post test</t>
   </si>
   <si>
-    <t>Post test</t>
+    <t>CCQ</t>
+  </si>
+  <si>
+    <t>Climate Q</t>
   </si>
 </sst>
 </file>
@@ -546,18 +549,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A43790F1-AF8F-CB4E-BA99-7D1E81789C34}">
-  <dimension ref="A1:N65"/>
+  <dimension ref="A1:N153"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="R25" sqref="R25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="5" width="10.83203125" style="4"/>
     <col min="6" max="7" width="11.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" style="4" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
@@ -871,7 +874,7 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B8" s="1">
         <v>2018</v>
@@ -892,7 +895,7 @@
         <v>17</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I8" s="1">
         <v>2018</v>
@@ -915,7 +918,7 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B9" s="1">
         <v>2018</v>
@@ -936,7 +939,7 @@
         <v>0</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I9" s="1">
         <v>2018</v>
@@ -1223,7 +1226,7 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B16" s="1">
         <v>2018</v>
@@ -1244,7 +1247,7 @@
         <v>45</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I16" s="1">
         <v>2018</v>
@@ -1267,7 +1270,7 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B17" s="1">
         <v>2018</v>
@@ -1288,7 +1291,7 @@
         <v>35</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I17" s="1">
         <v>2018</v>
@@ -1575,7 +1578,7 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>2018</v>
@@ -1596,7 +1599,7 @@
         <v>24</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I24" s="1">
         <v>2018</v>
@@ -1619,7 +1622,7 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B25" s="1">
         <v>2018</v>
@@ -1640,7 +1643,7 @@
         <v>10</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I25" s="1">
         <v>2018</v>
@@ -1927,7 +1930,7 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B32" s="1">
         <v>2018</v>
@@ -1948,7 +1951,7 @@
         <v>3</v>
       </c>
       <c r="H32" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I32" s="1">
         <v>2018</v>
@@ -1971,7 +1974,7 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B33" s="1">
         <v>2018</v>
@@ -1992,7 +1995,7 @@
         <v>17</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I33" s="1">
         <v>2018</v>
@@ -2279,7 +2282,7 @@
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B40" s="1">
         <v>2018</v>
@@ -2300,7 +2303,7 @@
         <v>44</v>
       </c>
       <c r="H40" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I40" s="1">
         <v>2018</v>
@@ -2323,7 +2326,7 @@
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B41" s="1">
         <v>2018</v>
@@ -2344,7 +2347,7 @@
         <v>21</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I41" s="1">
         <v>2018</v>
@@ -2631,7 +2634,7 @@
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B48" s="1">
         <v>2018</v>
@@ -2652,7 +2655,7 @@
         <v>36</v>
       </c>
       <c r="H48" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I48" s="1">
         <v>2018</v>
@@ -2675,7 +2678,7 @@
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B49" s="1">
         <v>2018</v>
@@ -2696,7 +2699,7 @@
         <v>0</v>
       </c>
       <c r="H49" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I49" s="1">
         <v>2018</v>
@@ -2983,7 +2986,7 @@
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56" s="6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B56" s="1">
         <v>2018</v>
@@ -3004,7 +3007,7 @@
         <v>56</v>
       </c>
       <c r="H56" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I56" s="1">
         <v>2018</v>
@@ -3027,7 +3030,7 @@
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B57" s="1">
         <v>2018</v>
@@ -3048,7 +3051,7 @@
         <v>9</v>
       </c>
       <c r="H57" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I57" s="1">
         <v>2018</v>
@@ -3335,7 +3338,7 @@
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64" s="6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B64" s="1">
         <v>2018</v>
@@ -3356,7 +3359,7 @@
         <v>37</v>
       </c>
       <c r="H64" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I64" s="1">
         <v>2018</v>
@@ -3379,7 +3382,7 @@
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B65" s="1">
         <v>2018</v>
@@ -3400,7 +3403,7 @@
         <v>40</v>
       </c>
       <c r="H65" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I65" s="1">
         <v>2018</v>
@@ -3419,6 +3422,3878 @@
       </c>
       <c r="N65" s="2">
         <v>10</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A66" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B66" s="5">
+        <v>2018</v>
+      </c>
+      <c r="C66" s="3">
+        <v>6</v>
+      </c>
+      <c r="D66" s="3">
+        <v>28</v>
+      </c>
+      <c r="E66" s="3">
+        <v>12</v>
+      </c>
+      <c r="F66" s="3">
+        <v>10</v>
+      </c>
+      <c r="G66" s="3">
+        <v>31</v>
+      </c>
+      <c r="H66" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I66" s="5">
+        <v>2018</v>
+      </c>
+      <c r="J66" s="3">
+        <v>6</v>
+      </c>
+      <c r="K66" s="3">
+        <v>28</v>
+      </c>
+      <c r="L66" s="3">
+        <v>12</v>
+      </c>
+      <c r="M66" s="3">
+        <v>13</v>
+      </c>
+      <c r="N66" s="3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A67" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B67" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C67" s="2">
+        <v>6</v>
+      </c>
+      <c r="D67" s="2">
+        <v>28</v>
+      </c>
+      <c r="E67" s="2">
+        <v>12</v>
+      </c>
+      <c r="F67" s="2">
+        <v>14</v>
+      </c>
+      <c r="G67" s="2">
+        <v>13</v>
+      </c>
+      <c r="H67" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I67" s="1">
+        <v>2018</v>
+      </c>
+      <c r="J67" s="2">
+        <v>6</v>
+      </c>
+      <c r="K67" s="2">
+        <v>28</v>
+      </c>
+      <c r="L67" s="2">
+        <v>12</v>
+      </c>
+      <c r="M67" s="2">
+        <v>17</v>
+      </c>
+      <c r="N67" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A68" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B68" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C68" s="2">
+        <v>6</v>
+      </c>
+      <c r="D68" s="2">
+        <v>28</v>
+      </c>
+      <c r="E68" s="2">
+        <v>12</v>
+      </c>
+      <c r="F68" s="2">
+        <v>17</v>
+      </c>
+      <c r="G68" s="2">
+        <v>48</v>
+      </c>
+      <c r="H68" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I68" s="1">
+        <v>2018</v>
+      </c>
+      <c r="J68" s="2">
+        <v>6</v>
+      </c>
+      <c r="K68" s="2">
+        <v>28</v>
+      </c>
+      <c r="L68" s="2">
+        <v>12</v>
+      </c>
+      <c r="M68" s="2">
+        <v>22</v>
+      </c>
+      <c r="N68" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A69" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B69" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C69" s="2">
+        <v>6</v>
+      </c>
+      <c r="D69" s="2">
+        <v>28</v>
+      </c>
+      <c r="E69" s="2">
+        <v>12</v>
+      </c>
+      <c r="F69" s="2">
+        <v>22</v>
+      </c>
+      <c r="G69" s="2">
+        <v>54</v>
+      </c>
+      <c r="H69" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I69" s="1">
+        <v>2018</v>
+      </c>
+      <c r="J69" s="2">
+        <v>6</v>
+      </c>
+      <c r="K69" s="2">
+        <v>28</v>
+      </c>
+      <c r="L69" s="2">
+        <v>12</v>
+      </c>
+      <c r="M69" s="2">
+        <v>27</v>
+      </c>
+      <c r="N69" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A70" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B70" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C70" s="2">
+        <v>6</v>
+      </c>
+      <c r="D70" s="2">
+        <v>28</v>
+      </c>
+      <c r="E70" s="2">
+        <v>12</v>
+      </c>
+      <c r="F70" s="2">
+        <v>27</v>
+      </c>
+      <c r="G70" s="2">
+        <v>33</v>
+      </c>
+      <c r="H70" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I70" s="1">
+        <v>2018</v>
+      </c>
+      <c r="J70" s="2">
+        <v>6</v>
+      </c>
+      <c r="K70" s="2">
+        <v>28</v>
+      </c>
+      <c r="L70" s="2">
+        <v>12</v>
+      </c>
+      <c r="M70" s="2">
+        <v>32</v>
+      </c>
+      <c r="N70" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A71" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B71" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C71" s="2">
+        <v>6</v>
+      </c>
+      <c r="D71" s="2">
+        <v>28</v>
+      </c>
+      <c r="E71" s="2">
+        <v>12</v>
+      </c>
+      <c r="F71" s="2">
+        <v>33</v>
+      </c>
+      <c r="G71" s="2">
+        <v>4</v>
+      </c>
+      <c r="H71" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I71" s="1">
+        <v>2018</v>
+      </c>
+      <c r="J71" s="2">
+        <v>6</v>
+      </c>
+      <c r="K71" s="2">
+        <v>28</v>
+      </c>
+      <c r="L71" s="2">
+        <v>12</v>
+      </c>
+      <c r="M71" s="2">
+        <v>33</v>
+      </c>
+      <c r="N71" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A72" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B72" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C72" s="2">
+        <v>6</v>
+      </c>
+      <c r="D72" s="2">
+        <v>28</v>
+      </c>
+      <c r="E72" s="2">
+        <v>12</v>
+      </c>
+      <c r="F72" s="2">
+        <v>35</v>
+      </c>
+      <c r="G72" s="2">
+        <v>6</v>
+      </c>
+      <c r="H72" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I72" s="1">
+        <v>2018</v>
+      </c>
+      <c r="J72" s="2">
+        <v>6</v>
+      </c>
+      <c r="K72" s="2">
+        <v>28</v>
+      </c>
+      <c r="L72" s="2">
+        <v>12</v>
+      </c>
+      <c r="M72" s="2">
+        <v>36</v>
+      </c>
+      <c r="N72" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A73" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B73" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C73" s="2">
+        <v>6</v>
+      </c>
+      <c r="D73" s="2">
+        <v>28</v>
+      </c>
+      <c r="E73" s="2">
+        <v>12</v>
+      </c>
+      <c r="F73" s="2">
+        <v>38</v>
+      </c>
+      <c r="G73" s="2">
+        <v>23</v>
+      </c>
+      <c r="H73" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I73" s="1">
+        <v>2018</v>
+      </c>
+      <c r="J73" s="2">
+        <v>6</v>
+      </c>
+      <c r="K73" s="2">
+        <v>28</v>
+      </c>
+      <c r="L73" s="2">
+        <v>12</v>
+      </c>
+      <c r="M73" s="2">
+        <v>45</v>
+      </c>
+      <c r="N73" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A74" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B74" s="5">
+        <v>2018</v>
+      </c>
+      <c r="C74" s="3">
+        <v>6</v>
+      </c>
+      <c r="D74" s="3">
+        <v>28</v>
+      </c>
+      <c r="E74" s="3">
+        <v>13</v>
+      </c>
+      <c r="F74" s="3">
+        <v>5</v>
+      </c>
+      <c r="G74" s="3">
+        <v>11</v>
+      </c>
+      <c r="H74" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I74" s="5">
+        <v>2018</v>
+      </c>
+      <c r="J74" s="3">
+        <v>6</v>
+      </c>
+      <c r="K74" s="3">
+        <v>28</v>
+      </c>
+      <c r="L74" s="3">
+        <v>13</v>
+      </c>
+      <c r="M74" s="3">
+        <v>8</v>
+      </c>
+      <c r="N74" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A75" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B75" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C75" s="2">
+        <v>6</v>
+      </c>
+      <c r="D75" s="2">
+        <v>28</v>
+      </c>
+      <c r="E75" s="2">
+        <v>13</v>
+      </c>
+      <c r="F75" s="2">
+        <v>8</v>
+      </c>
+      <c r="G75" s="2">
+        <v>40</v>
+      </c>
+      <c r="H75" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I75" s="1">
+        <v>2018</v>
+      </c>
+      <c r="J75" s="2">
+        <v>6</v>
+      </c>
+      <c r="K75" s="2">
+        <v>28</v>
+      </c>
+      <c r="L75" s="2">
+        <v>13</v>
+      </c>
+      <c r="M75" s="2">
+        <v>11</v>
+      </c>
+      <c r="N75" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A76" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B76" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C76" s="2">
+        <v>6</v>
+      </c>
+      <c r="D76" s="2">
+        <v>28</v>
+      </c>
+      <c r="E76" s="2">
+        <v>12</v>
+      </c>
+      <c r="F76" s="2">
+        <v>11</v>
+      </c>
+      <c r="G76" s="2">
+        <v>53</v>
+      </c>
+      <c r="H76" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I76" s="1">
+        <v>2018</v>
+      </c>
+      <c r="J76" s="2">
+        <v>6</v>
+      </c>
+      <c r="K76" s="2">
+        <v>28</v>
+      </c>
+      <c r="L76" s="2">
+        <v>13</v>
+      </c>
+      <c r="M76" s="2">
+        <v>16</v>
+      </c>
+      <c r="N76" s="2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A77" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B77" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C77" s="2">
+        <v>6</v>
+      </c>
+      <c r="D77" s="2">
+        <v>28</v>
+      </c>
+      <c r="E77" s="2">
+        <v>13</v>
+      </c>
+      <c r="F77" s="2">
+        <v>17</v>
+      </c>
+      <c r="G77" s="2">
+        <v>10</v>
+      </c>
+      <c r="H77" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I77" s="1">
+        <v>2018</v>
+      </c>
+      <c r="J77" s="2">
+        <v>6</v>
+      </c>
+      <c r="K77" s="2">
+        <v>28</v>
+      </c>
+      <c r="L77" s="2">
+        <v>13</v>
+      </c>
+      <c r="M77" s="2">
+        <v>20</v>
+      </c>
+      <c r="N77" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A78" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B78" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C78" s="2">
+        <v>6</v>
+      </c>
+      <c r="D78" s="2">
+        <v>28</v>
+      </c>
+      <c r="E78" s="2">
+        <v>13</v>
+      </c>
+      <c r="F78" s="2">
+        <v>20</v>
+      </c>
+      <c r="G78" s="2">
+        <v>26</v>
+      </c>
+      <c r="H78" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I78" s="1">
+        <v>2018</v>
+      </c>
+      <c r="J78" s="2">
+        <v>6</v>
+      </c>
+      <c r="K78" s="2">
+        <v>28</v>
+      </c>
+      <c r="L78" s="2">
+        <v>13</v>
+      </c>
+      <c r="M78" s="2">
+        <v>25</v>
+      </c>
+      <c r="N78" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A79" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B79" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C79" s="2">
+        <v>6</v>
+      </c>
+      <c r="D79" s="2">
+        <v>28</v>
+      </c>
+      <c r="E79" s="2">
+        <v>13</v>
+      </c>
+      <c r="F79" s="2">
+        <v>25</v>
+      </c>
+      <c r="G79" s="2">
+        <v>34</v>
+      </c>
+      <c r="H79" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I79" s="1">
+        <v>2018</v>
+      </c>
+      <c r="J79" s="2">
+        <v>6</v>
+      </c>
+      <c r="K79" s="2">
+        <v>28</v>
+      </c>
+      <c r="L79" s="2">
+        <v>13</v>
+      </c>
+      <c r="M79" s="2">
+        <v>26</v>
+      </c>
+      <c r="N79" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A80" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B80" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C80" s="2">
+        <v>6</v>
+      </c>
+      <c r="D80" s="2">
+        <v>28</v>
+      </c>
+      <c r="E80" s="2">
+        <v>13</v>
+      </c>
+      <c r="F80" s="2">
+        <v>28</v>
+      </c>
+      <c r="G80" s="2">
+        <v>0</v>
+      </c>
+      <c r="H80" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I80" s="1">
+        <v>2018</v>
+      </c>
+      <c r="J80" s="2">
+        <v>6</v>
+      </c>
+      <c r="K80" s="2">
+        <v>28</v>
+      </c>
+      <c r="L80" s="2">
+        <v>13</v>
+      </c>
+      <c r="M80" s="2">
+        <v>30</v>
+      </c>
+      <c r="N80" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A81" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B81" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C81" s="2">
+        <v>6</v>
+      </c>
+      <c r="D81" s="2">
+        <v>28</v>
+      </c>
+      <c r="E81" s="2">
+        <v>13</v>
+      </c>
+      <c r="F81" s="2">
+        <v>32</v>
+      </c>
+      <c r="G81" s="2">
+        <v>0</v>
+      </c>
+      <c r="H81" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I81" s="1">
+        <v>2018</v>
+      </c>
+      <c r="J81" s="2">
+        <v>6</v>
+      </c>
+      <c r="K81" s="2">
+        <v>28</v>
+      </c>
+      <c r="L81" s="2">
+        <v>13</v>
+      </c>
+      <c r="M81" s="2">
+        <v>37</v>
+      </c>
+      <c r="N81" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A82" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B82" s="5">
+        <v>2018</v>
+      </c>
+      <c r="C82" s="3">
+        <v>6</v>
+      </c>
+      <c r="D82" s="3">
+        <v>29</v>
+      </c>
+      <c r="E82" s="3">
+        <v>11</v>
+      </c>
+      <c r="F82" s="3">
+        <v>24</v>
+      </c>
+      <c r="G82" s="3">
+        <v>31</v>
+      </c>
+      <c r="H82" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I82" s="5">
+        <v>2018</v>
+      </c>
+      <c r="J82" s="3">
+        <v>6</v>
+      </c>
+      <c r="K82" s="3">
+        <v>29</v>
+      </c>
+      <c r="L82" s="3">
+        <v>11</v>
+      </c>
+      <c r="M82" s="3">
+        <v>27</v>
+      </c>
+      <c r="N82" s="3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A83" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B83" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C83" s="2">
+        <v>6</v>
+      </c>
+      <c r="D83" s="3">
+        <v>29</v>
+      </c>
+      <c r="E83" s="2">
+        <v>11</v>
+      </c>
+      <c r="F83" s="2">
+        <v>28</v>
+      </c>
+      <c r="G83" s="2">
+        <v>6</v>
+      </c>
+      <c r="H83" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I83" s="1">
+        <v>2018</v>
+      </c>
+      <c r="J83" s="2">
+        <v>6</v>
+      </c>
+      <c r="K83" s="3">
+        <v>29</v>
+      </c>
+      <c r="L83" s="2">
+        <v>11</v>
+      </c>
+      <c r="M83" s="2">
+        <v>31</v>
+      </c>
+      <c r="N83" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A84" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B84" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C84" s="2">
+        <v>6</v>
+      </c>
+      <c r="D84" s="3">
+        <v>29</v>
+      </c>
+      <c r="E84" s="2">
+        <v>11</v>
+      </c>
+      <c r="F84" s="2">
+        <v>31</v>
+      </c>
+      <c r="G84" s="2">
+        <v>50</v>
+      </c>
+      <c r="H84" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I84" s="1">
+        <v>2018</v>
+      </c>
+      <c r="J84" s="2">
+        <v>6</v>
+      </c>
+      <c r="K84" s="3">
+        <v>29</v>
+      </c>
+      <c r="L84" s="2">
+        <v>11</v>
+      </c>
+      <c r="M84" s="2">
+        <v>37</v>
+      </c>
+      <c r="N84" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A85" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B85" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C85" s="2">
+        <v>6</v>
+      </c>
+      <c r="D85" s="3">
+        <v>29</v>
+      </c>
+      <c r="E85" s="2">
+        <v>11</v>
+      </c>
+      <c r="F85" s="2">
+        <v>37</v>
+      </c>
+      <c r="G85" s="2">
+        <v>23</v>
+      </c>
+      <c r="H85" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I85" s="1">
+        <v>2018</v>
+      </c>
+      <c r="J85" s="2">
+        <v>6</v>
+      </c>
+      <c r="K85" s="3">
+        <v>29</v>
+      </c>
+      <c r="L85" s="2">
+        <v>11</v>
+      </c>
+      <c r="M85" s="2">
+        <v>40</v>
+      </c>
+      <c r="N85" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A86" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B86" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C86" s="2">
+        <v>6</v>
+      </c>
+      <c r="D86" s="3">
+        <v>29</v>
+      </c>
+      <c r="E86" s="2">
+        <v>11</v>
+      </c>
+      <c r="F86" s="2">
+        <v>40</v>
+      </c>
+      <c r="G86" s="2">
+        <v>37</v>
+      </c>
+      <c r="H86" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I86" s="1">
+        <v>2018</v>
+      </c>
+      <c r="J86" s="2">
+        <v>6</v>
+      </c>
+      <c r="K86" s="3">
+        <v>29</v>
+      </c>
+      <c r="L86" s="2">
+        <v>11</v>
+      </c>
+      <c r="M86" s="2">
+        <v>45</v>
+      </c>
+      <c r="N86" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A87" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B87" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C87" s="2">
+        <v>6</v>
+      </c>
+      <c r="D87" s="3">
+        <v>29</v>
+      </c>
+      <c r="E87" s="2">
+        <v>11</v>
+      </c>
+      <c r="F87" s="2">
+        <v>46</v>
+      </c>
+      <c r="G87" s="2">
+        <v>0</v>
+      </c>
+      <c r="H87" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I87" s="1">
+        <v>2018</v>
+      </c>
+      <c r="J87" s="2">
+        <v>6</v>
+      </c>
+      <c r="K87" s="3">
+        <v>29</v>
+      </c>
+      <c r="L87" s="2">
+        <v>11</v>
+      </c>
+      <c r="M87" s="2">
+        <v>46</v>
+      </c>
+      <c r="N87" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A88" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B88" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C88" s="2">
+        <v>6</v>
+      </c>
+      <c r="D88" s="3">
+        <v>29</v>
+      </c>
+      <c r="E88" s="2">
+        <v>11</v>
+      </c>
+      <c r="F88" s="2">
+        <v>49</v>
+      </c>
+      <c r="G88" s="2">
+        <v>14</v>
+      </c>
+      <c r="H88" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I88" s="1">
+        <v>2018</v>
+      </c>
+      <c r="J88" s="2">
+        <v>6</v>
+      </c>
+      <c r="K88" s="3">
+        <v>29</v>
+      </c>
+      <c r="L88" s="2">
+        <v>11</v>
+      </c>
+      <c r="M88" s="2">
+        <v>51</v>
+      </c>
+      <c r="N88" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A89" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B89" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C89" s="2">
+        <v>6</v>
+      </c>
+      <c r="D89" s="3">
+        <v>29</v>
+      </c>
+      <c r="E89" s="2">
+        <v>11</v>
+      </c>
+      <c r="F89" s="2">
+        <v>52</v>
+      </c>
+      <c r="G89" s="2">
+        <v>39</v>
+      </c>
+      <c r="H89" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I89" s="1">
+        <v>2018</v>
+      </c>
+      <c r="J89" s="2">
+        <v>6</v>
+      </c>
+      <c r="K89" s="3">
+        <v>29</v>
+      </c>
+      <c r="L89" s="2">
+        <v>11</v>
+      </c>
+      <c r="M89" s="2">
+        <v>59</v>
+      </c>
+      <c r="N89" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A90" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B90" s="5">
+        <v>2018</v>
+      </c>
+      <c r="C90" s="3">
+        <v>6</v>
+      </c>
+      <c r="D90" s="3">
+        <v>29</v>
+      </c>
+      <c r="E90" s="3">
+        <v>12</v>
+      </c>
+      <c r="F90" s="3">
+        <v>8</v>
+      </c>
+      <c r="G90" s="3">
+        <v>41</v>
+      </c>
+      <c r="H90" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I90" s="5">
+        <v>2018</v>
+      </c>
+      <c r="J90" s="3">
+        <v>6</v>
+      </c>
+      <c r="K90" s="3">
+        <v>29</v>
+      </c>
+      <c r="L90" s="3">
+        <v>12</v>
+      </c>
+      <c r="M90" s="3">
+        <v>11</v>
+      </c>
+      <c r="N90" s="3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A91" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B91" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C91" s="2">
+        <v>6</v>
+      </c>
+      <c r="D91" s="3">
+        <v>29</v>
+      </c>
+      <c r="E91" s="2">
+        <v>12</v>
+      </c>
+      <c r="F91" s="2">
+        <v>12</v>
+      </c>
+      <c r="G91" s="2">
+        <v>24</v>
+      </c>
+      <c r="H91" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I91" s="1">
+        <v>2018</v>
+      </c>
+      <c r="J91" s="2">
+        <v>6</v>
+      </c>
+      <c r="K91" s="3">
+        <v>29</v>
+      </c>
+      <c r="L91" s="2">
+        <v>12</v>
+      </c>
+      <c r="M91" s="2">
+        <v>15</v>
+      </c>
+      <c r="N91" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A92" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B92" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C92" s="2">
+        <v>6</v>
+      </c>
+      <c r="D92" s="3">
+        <v>29</v>
+      </c>
+      <c r="E92" s="2">
+        <v>12</v>
+      </c>
+      <c r="F92" s="2">
+        <v>16</v>
+      </c>
+      <c r="G92" s="2">
+        <v>31</v>
+      </c>
+      <c r="H92" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I92" s="1">
+        <v>2018</v>
+      </c>
+      <c r="J92" s="2">
+        <v>6</v>
+      </c>
+      <c r="K92" s="3">
+        <v>29</v>
+      </c>
+      <c r="L92" s="2">
+        <v>12</v>
+      </c>
+      <c r="M92" s="2">
+        <v>21</v>
+      </c>
+      <c r="N92" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A93" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B93" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C93" s="2">
+        <v>6</v>
+      </c>
+      <c r="D93" s="3">
+        <v>29</v>
+      </c>
+      <c r="E93" s="2">
+        <v>12</v>
+      </c>
+      <c r="F93" s="2">
+        <v>21</v>
+      </c>
+      <c r="G93" s="2">
+        <v>28</v>
+      </c>
+      <c r="H93" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I93" s="1">
+        <v>2018</v>
+      </c>
+      <c r="J93" s="2">
+        <v>6</v>
+      </c>
+      <c r="K93" s="3">
+        <v>29</v>
+      </c>
+      <c r="L93" s="2">
+        <v>12</v>
+      </c>
+      <c r="M93" s="2">
+        <v>24</v>
+      </c>
+      <c r="N93" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A94" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B94" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C94" s="2">
+        <v>6</v>
+      </c>
+      <c r="D94" s="3">
+        <v>29</v>
+      </c>
+      <c r="E94" s="2">
+        <v>12</v>
+      </c>
+      <c r="F94" s="2">
+        <v>24</v>
+      </c>
+      <c r="G94" s="2">
+        <v>51</v>
+      </c>
+      <c r="H94" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I94" s="1">
+        <v>2018</v>
+      </c>
+      <c r="J94" s="2">
+        <v>6</v>
+      </c>
+      <c r="K94" s="3">
+        <v>29</v>
+      </c>
+      <c r="L94" s="2">
+        <v>12</v>
+      </c>
+      <c r="M94" s="2">
+        <v>29</v>
+      </c>
+      <c r="N94" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A95" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B95" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C95" s="2">
+        <v>6</v>
+      </c>
+      <c r="D95" s="3">
+        <v>29</v>
+      </c>
+      <c r="E95" s="2">
+        <v>12</v>
+      </c>
+      <c r="F95" s="2">
+        <v>30</v>
+      </c>
+      <c r="G95" s="2">
+        <v>8</v>
+      </c>
+      <c r="H95" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I95" s="1">
+        <v>2018</v>
+      </c>
+      <c r="J95" s="2">
+        <v>6</v>
+      </c>
+      <c r="K95" s="3">
+        <v>29</v>
+      </c>
+      <c r="L95" s="2">
+        <v>12</v>
+      </c>
+      <c r="M95" s="2">
+        <v>31</v>
+      </c>
+      <c r="N95" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A96" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B96" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C96" s="2">
+        <v>6</v>
+      </c>
+      <c r="D96" s="3">
+        <v>29</v>
+      </c>
+      <c r="E96" s="2">
+        <v>12</v>
+      </c>
+      <c r="F96" s="2">
+        <v>34</v>
+      </c>
+      <c r="G96" s="2">
+        <v>18</v>
+      </c>
+      <c r="H96" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I96" s="1">
+        <v>2018</v>
+      </c>
+      <c r="J96" s="2">
+        <v>6</v>
+      </c>
+      <c r="K96" s="3">
+        <v>29</v>
+      </c>
+      <c r="L96" s="2">
+        <v>12</v>
+      </c>
+      <c r="M96" s="2">
+        <v>36</v>
+      </c>
+      <c r="N96" s="2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A97" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B97" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C97" s="2">
+        <v>6</v>
+      </c>
+      <c r="D97" s="3">
+        <v>29</v>
+      </c>
+      <c r="E97" s="2">
+        <v>12</v>
+      </c>
+      <c r="F97" s="2">
+        <v>38</v>
+      </c>
+      <c r="G97" s="2">
+        <v>48</v>
+      </c>
+      <c r="H97" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I97" s="1">
+        <v>2018</v>
+      </c>
+      <c r="J97" s="2">
+        <v>6</v>
+      </c>
+      <c r="K97" s="3">
+        <v>29</v>
+      </c>
+      <c r="L97" s="2">
+        <v>12</v>
+      </c>
+      <c r="M97" s="2">
+        <v>45</v>
+      </c>
+      <c r="N97" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A98" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B98" s="5">
+        <v>2018</v>
+      </c>
+      <c r="C98" s="3">
+        <v>7</v>
+      </c>
+      <c r="D98" s="3">
+        <v>13</v>
+      </c>
+      <c r="E98" s="3">
+        <v>7</v>
+      </c>
+      <c r="F98" s="3">
+        <v>18</v>
+      </c>
+      <c r="G98" s="3">
+        <v>58</v>
+      </c>
+      <c r="H98" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I98" s="5">
+        <v>2018</v>
+      </c>
+      <c r="J98" s="3">
+        <v>7</v>
+      </c>
+      <c r="K98" s="3">
+        <v>13</v>
+      </c>
+      <c r="L98" s="3">
+        <v>7</v>
+      </c>
+      <c r="M98" s="3">
+        <v>22</v>
+      </c>
+      <c r="N98" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A99" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B99" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C99" s="3">
+        <v>7</v>
+      </c>
+      <c r="D99" s="3">
+        <v>13</v>
+      </c>
+      <c r="E99" s="2">
+        <v>7</v>
+      </c>
+      <c r="F99" s="2">
+        <v>22</v>
+      </c>
+      <c r="G99" s="2">
+        <v>35</v>
+      </c>
+      <c r="H99" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I99" s="1">
+        <v>2018</v>
+      </c>
+      <c r="J99" s="3">
+        <v>7</v>
+      </c>
+      <c r="K99" s="3">
+        <v>13</v>
+      </c>
+      <c r="L99" s="2">
+        <v>7</v>
+      </c>
+      <c r="M99" s="2">
+        <v>26</v>
+      </c>
+      <c r="N99" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A100" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B100" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C100" s="3">
+        <v>7</v>
+      </c>
+      <c r="D100" s="3">
+        <v>13</v>
+      </c>
+      <c r="E100" s="2">
+        <v>7</v>
+      </c>
+      <c r="F100" s="2">
+        <v>26</v>
+      </c>
+      <c r="G100" s="2">
+        <v>22</v>
+      </c>
+      <c r="H100" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I100" s="1">
+        <v>2018</v>
+      </c>
+      <c r="J100" s="3">
+        <v>7</v>
+      </c>
+      <c r="K100" s="3">
+        <v>13</v>
+      </c>
+      <c r="L100" s="2">
+        <v>7</v>
+      </c>
+      <c r="M100" s="2">
+        <v>31</v>
+      </c>
+      <c r="N100" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A101" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B101" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C101" s="3">
+        <v>7</v>
+      </c>
+      <c r="D101" s="3">
+        <v>13</v>
+      </c>
+      <c r="E101" s="2">
+        <v>7</v>
+      </c>
+      <c r="F101" s="2">
+        <v>31</v>
+      </c>
+      <c r="G101" s="2">
+        <v>38</v>
+      </c>
+      <c r="H101" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I101" s="1">
+        <v>2018</v>
+      </c>
+      <c r="J101" s="3">
+        <v>7</v>
+      </c>
+      <c r="K101" s="3">
+        <v>13</v>
+      </c>
+      <c r="L101" s="2">
+        <v>7</v>
+      </c>
+      <c r="M101" s="2">
+        <v>35</v>
+      </c>
+      <c r="N101" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A102" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B102" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C102" s="3">
+        <v>7</v>
+      </c>
+      <c r="D102" s="3">
+        <v>13</v>
+      </c>
+      <c r="E102" s="2">
+        <v>7</v>
+      </c>
+      <c r="F102" s="2">
+        <v>35</v>
+      </c>
+      <c r="G102" s="2">
+        <v>17</v>
+      </c>
+      <c r="H102" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I102" s="1">
+        <v>2018</v>
+      </c>
+      <c r="J102" s="3">
+        <v>7</v>
+      </c>
+      <c r="K102" s="3">
+        <v>13</v>
+      </c>
+      <c r="L102" s="2">
+        <v>7</v>
+      </c>
+      <c r="M102" s="2">
+        <v>40</v>
+      </c>
+      <c r="N102" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A103" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B103" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C103" s="3">
+        <v>7</v>
+      </c>
+      <c r="D103" s="3">
+        <v>13</v>
+      </c>
+      <c r="E103" s="2">
+        <v>7</v>
+      </c>
+      <c r="F103" s="2">
+        <v>40</v>
+      </c>
+      <c r="G103" s="2">
+        <v>20</v>
+      </c>
+      <c r="H103" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I103" s="1">
+        <v>2018</v>
+      </c>
+      <c r="J103" s="3">
+        <v>7</v>
+      </c>
+      <c r="K103" s="3">
+        <v>13</v>
+      </c>
+      <c r="L103" s="2">
+        <v>7</v>
+      </c>
+      <c r="M103" s="2">
+        <v>41</v>
+      </c>
+      <c r="N103" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A104" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B104" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C104" s="3">
+        <v>7</v>
+      </c>
+      <c r="D104" s="3">
+        <v>13</v>
+      </c>
+      <c r="E104" s="2">
+        <v>7</v>
+      </c>
+      <c r="F104" s="2">
+        <v>43</v>
+      </c>
+      <c r="G104" s="2">
+        <v>14</v>
+      </c>
+      <c r="H104" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I104" s="1">
+        <v>2018</v>
+      </c>
+      <c r="J104" s="3">
+        <v>7</v>
+      </c>
+      <c r="K104" s="3">
+        <v>13</v>
+      </c>
+      <c r="L104" s="2">
+        <v>7</v>
+      </c>
+      <c r="M104" s="2">
+        <v>44</v>
+      </c>
+      <c r="N104" s="2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A105" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B105" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C105" s="3">
+        <v>7</v>
+      </c>
+      <c r="D105" s="3">
+        <v>13</v>
+      </c>
+      <c r="E105" s="2">
+        <v>7</v>
+      </c>
+      <c r="F105" s="2">
+        <v>46</v>
+      </c>
+      <c r="G105" s="2">
+        <v>3</v>
+      </c>
+      <c r="H105" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I105" s="1">
+        <v>2018</v>
+      </c>
+      <c r="J105" s="3">
+        <v>7</v>
+      </c>
+      <c r="K105" s="3">
+        <v>13</v>
+      </c>
+      <c r="L105" s="2">
+        <v>7</v>
+      </c>
+      <c r="M105" s="2">
+        <v>55</v>
+      </c>
+      <c r="N105" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A106" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B106" s="5">
+        <v>2018</v>
+      </c>
+      <c r="C106" s="3">
+        <v>7</v>
+      </c>
+      <c r="D106" s="3">
+        <v>16</v>
+      </c>
+      <c r="E106" s="3">
+        <v>11</v>
+      </c>
+      <c r="F106" s="3">
+        <v>6</v>
+      </c>
+      <c r="G106" s="3">
+        <v>58</v>
+      </c>
+      <c r="H106" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I106" s="5">
+        <v>2018</v>
+      </c>
+      <c r="J106" s="3">
+        <v>7</v>
+      </c>
+      <c r="K106" s="3">
+        <v>16</v>
+      </c>
+      <c r="L106" s="3">
+        <v>11</v>
+      </c>
+      <c r="M106" s="3">
+        <v>10</v>
+      </c>
+      <c r="N106" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A107" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B107" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C107" s="3">
+        <v>7</v>
+      </c>
+      <c r="D107" s="3">
+        <v>16</v>
+      </c>
+      <c r="E107" s="2">
+        <v>11</v>
+      </c>
+      <c r="F107" s="2">
+        <v>10</v>
+      </c>
+      <c r="G107" s="2">
+        <v>35</v>
+      </c>
+      <c r="H107" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I107" s="1">
+        <v>2018</v>
+      </c>
+      <c r="J107" s="3">
+        <v>7</v>
+      </c>
+      <c r="K107" s="3">
+        <v>16</v>
+      </c>
+      <c r="L107" s="2">
+        <v>11</v>
+      </c>
+      <c r="M107" s="2">
+        <v>14</v>
+      </c>
+      <c r="N107" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A108" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B108" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C108" s="3">
+        <v>7</v>
+      </c>
+      <c r="D108" s="3">
+        <v>16</v>
+      </c>
+      <c r="E108" s="2">
+        <v>11</v>
+      </c>
+      <c r="F108" s="2">
+        <v>14</v>
+      </c>
+      <c r="G108" s="2">
+        <v>22</v>
+      </c>
+      <c r="H108" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I108" s="1">
+        <v>2018</v>
+      </c>
+      <c r="J108" s="3">
+        <v>7</v>
+      </c>
+      <c r="K108" s="3">
+        <v>16</v>
+      </c>
+      <c r="L108" s="2">
+        <v>11</v>
+      </c>
+      <c r="M108" s="2">
+        <v>19</v>
+      </c>
+      <c r="N108" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A109" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B109" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C109" s="3">
+        <v>7</v>
+      </c>
+      <c r="D109" s="3">
+        <v>16</v>
+      </c>
+      <c r="E109" s="2">
+        <v>11</v>
+      </c>
+      <c r="F109" s="2">
+        <v>19</v>
+      </c>
+      <c r="G109" s="2">
+        <v>38</v>
+      </c>
+      <c r="H109" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I109" s="1">
+        <v>2018</v>
+      </c>
+      <c r="J109" s="3">
+        <v>7</v>
+      </c>
+      <c r="K109" s="3">
+        <v>16</v>
+      </c>
+      <c r="L109" s="2">
+        <v>11</v>
+      </c>
+      <c r="M109" s="2">
+        <v>23</v>
+      </c>
+      <c r="N109" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A110" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B110" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C110" s="3">
+        <v>7</v>
+      </c>
+      <c r="D110" s="3">
+        <v>16</v>
+      </c>
+      <c r="E110" s="2">
+        <v>11</v>
+      </c>
+      <c r="F110" s="2">
+        <v>23</v>
+      </c>
+      <c r="G110" s="2">
+        <v>17</v>
+      </c>
+      <c r="H110" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I110" s="1">
+        <v>2018</v>
+      </c>
+      <c r="J110" s="3">
+        <v>7</v>
+      </c>
+      <c r="K110" s="3">
+        <v>16</v>
+      </c>
+      <c r="L110" s="2">
+        <v>11</v>
+      </c>
+      <c r="M110" s="2">
+        <v>28</v>
+      </c>
+      <c r="N110" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A111" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B111" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C111" s="3">
+        <v>7</v>
+      </c>
+      <c r="D111" s="3">
+        <v>16</v>
+      </c>
+      <c r="E111" s="2">
+        <v>11</v>
+      </c>
+      <c r="F111" s="2">
+        <v>28</v>
+      </c>
+      <c r="G111" s="2">
+        <v>20</v>
+      </c>
+      <c r="H111" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I111" s="1">
+        <v>2018</v>
+      </c>
+      <c r="J111" s="3">
+        <v>7</v>
+      </c>
+      <c r="K111" s="3">
+        <v>16</v>
+      </c>
+      <c r="L111" s="2">
+        <v>11</v>
+      </c>
+      <c r="M111" s="2">
+        <v>29</v>
+      </c>
+      <c r="N111" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A112" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B112" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C112" s="3">
+        <v>7</v>
+      </c>
+      <c r="D112" s="3">
+        <v>16</v>
+      </c>
+      <c r="E112" s="2">
+        <v>11</v>
+      </c>
+      <c r="F112" s="2">
+        <v>31</v>
+      </c>
+      <c r="G112" s="2">
+        <v>14</v>
+      </c>
+      <c r="H112" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I112" s="1">
+        <v>2018</v>
+      </c>
+      <c r="J112" s="3">
+        <v>7</v>
+      </c>
+      <c r="K112" s="3">
+        <v>16</v>
+      </c>
+      <c r="L112" s="2">
+        <v>11</v>
+      </c>
+      <c r="M112" s="2">
+        <v>32</v>
+      </c>
+      <c r="N112" s="2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A113" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B113" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C113" s="3">
+        <v>7</v>
+      </c>
+      <c r="D113" s="3">
+        <v>16</v>
+      </c>
+      <c r="E113" s="2">
+        <v>11</v>
+      </c>
+      <c r="F113" s="2">
+        <v>34</v>
+      </c>
+      <c r="G113" s="2">
+        <v>3</v>
+      </c>
+      <c r="H113" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I113" s="1">
+        <v>2018</v>
+      </c>
+      <c r="J113" s="3">
+        <v>7</v>
+      </c>
+      <c r="K113" s="3">
+        <v>16</v>
+      </c>
+      <c r="L113" s="2">
+        <v>11</v>
+      </c>
+      <c r="M113" s="2">
+        <v>40</v>
+      </c>
+      <c r="N113" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A114" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B114" s="5">
+        <v>2018</v>
+      </c>
+      <c r="C114" s="3">
+        <v>7</v>
+      </c>
+      <c r="D114" s="3">
+        <v>16</v>
+      </c>
+      <c r="E114" s="3">
+        <v>14</v>
+      </c>
+      <c r="F114" s="3">
+        <v>6</v>
+      </c>
+      <c r="G114" s="3">
+        <v>54</v>
+      </c>
+      <c r="H114" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I114" s="5">
+        <v>2018</v>
+      </c>
+      <c r="J114" s="3">
+        <v>7</v>
+      </c>
+      <c r="K114" s="3">
+        <v>16</v>
+      </c>
+      <c r="L114" s="3">
+        <v>14</v>
+      </c>
+      <c r="M114" s="3">
+        <v>10</v>
+      </c>
+      <c r="N114" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A115" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B115" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C115" s="3">
+        <v>7</v>
+      </c>
+      <c r="D115" s="3">
+        <v>16</v>
+      </c>
+      <c r="E115" s="2">
+        <v>14</v>
+      </c>
+      <c r="F115" s="2">
+        <v>10</v>
+      </c>
+      <c r="G115" s="2">
+        <v>27</v>
+      </c>
+      <c r="H115" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I115" s="1">
+        <v>2018</v>
+      </c>
+      <c r="J115" s="3">
+        <v>7</v>
+      </c>
+      <c r="K115" s="3">
+        <v>16</v>
+      </c>
+      <c r="L115" s="2">
+        <v>14</v>
+      </c>
+      <c r="M115" s="2">
+        <v>13</v>
+      </c>
+      <c r="N115" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A116" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B116" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C116" s="3">
+        <v>7</v>
+      </c>
+      <c r="D116" s="3">
+        <v>16</v>
+      </c>
+      <c r="E116" s="2">
+        <v>14</v>
+      </c>
+      <c r="F116" s="2">
+        <v>14</v>
+      </c>
+      <c r="G116" s="2">
+        <v>2</v>
+      </c>
+      <c r="H116" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I116" s="1">
+        <v>2018</v>
+      </c>
+      <c r="J116" s="3">
+        <v>7</v>
+      </c>
+      <c r="K116" s="3">
+        <v>16</v>
+      </c>
+      <c r="L116" s="2">
+        <v>14</v>
+      </c>
+      <c r="M116" s="2">
+        <v>19</v>
+      </c>
+      <c r="N116" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A117" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B117" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C117" s="3">
+        <v>7</v>
+      </c>
+      <c r="D117" s="3">
+        <v>16</v>
+      </c>
+      <c r="E117" s="2">
+        <v>14</v>
+      </c>
+      <c r="F117" s="2">
+        <v>19</v>
+      </c>
+      <c r="G117" s="2">
+        <v>30</v>
+      </c>
+      <c r="H117" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I117" s="1">
+        <v>2018</v>
+      </c>
+      <c r="J117" s="3">
+        <v>7</v>
+      </c>
+      <c r="K117" s="3">
+        <v>16</v>
+      </c>
+      <c r="L117" s="2">
+        <v>14</v>
+      </c>
+      <c r="M117" s="2">
+        <v>24</v>
+      </c>
+      <c r="N117" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A118" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B118" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C118" s="3">
+        <v>7</v>
+      </c>
+      <c r="D118" s="3">
+        <v>16</v>
+      </c>
+      <c r="E118" s="2">
+        <v>14</v>
+      </c>
+      <c r="F118" s="2">
+        <v>24</v>
+      </c>
+      <c r="G118" s="2">
+        <v>15</v>
+      </c>
+      <c r="H118" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I118" s="1">
+        <v>2018</v>
+      </c>
+      <c r="J118" s="3">
+        <v>7</v>
+      </c>
+      <c r="K118" s="3">
+        <v>16</v>
+      </c>
+      <c r="L118" s="2">
+        <v>14</v>
+      </c>
+      <c r="M118" s="2">
+        <v>29</v>
+      </c>
+      <c r="N118" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A119" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B119" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C119" s="3">
+        <v>7</v>
+      </c>
+      <c r="D119" s="3">
+        <v>16</v>
+      </c>
+      <c r="E119" s="2">
+        <v>14</v>
+      </c>
+      <c r="F119" s="2">
+        <v>29</v>
+      </c>
+      <c r="G119" s="2">
+        <v>27</v>
+      </c>
+      <c r="H119" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I119" s="1">
+        <v>2018</v>
+      </c>
+      <c r="J119" s="3">
+        <v>7</v>
+      </c>
+      <c r="K119" s="3">
+        <v>16</v>
+      </c>
+      <c r="L119" s="2">
+        <v>14</v>
+      </c>
+      <c r="M119" s="2">
+        <v>31</v>
+      </c>
+      <c r="N119" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A120" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B120" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C120" s="3">
+        <v>7</v>
+      </c>
+      <c r="D120" s="3">
+        <v>16</v>
+      </c>
+      <c r="E120" s="2">
+        <v>14</v>
+      </c>
+      <c r="F120" s="2">
+        <v>32</v>
+      </c>
+      <c r="G120" s="2">
+        <v>48</v>
+      </c>
+      <c r="H120" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I120" s="1">
+        <v>2018</v>
+      </c>
+      <c r="J120" s="3">
+        <v>7</v>
+      </c>
+      <c r="K120" s="3">
+        <v>16</v>
+      </c>
+      <c r="L120" s="2">
+        <v>14</v>
+      </c>
+      <c r="M120" s="2">
+        <v>35</v>
+      </c>
+      <c r="N120" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A121" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B121" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C121" s="3">
+        <v>7</v>
+      </c>
+      <c r="D121" s="3">
+        <v>16</v>
+      </c>
+      <c r="E121" s="2">
+        <v>14</v>
+      </c>
+      <c r="F121" s="2">
+        <v>36</v>
+      </c>
+      <c r="G121" s="2">
+        <v>57</v>
+      </c>
+      <c r="H121" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I121" s="1">
+        <v>2018</v>
+      </c>
+      <c r="J121" s="3">
+        <v>7</v>
+      </c>
+      <c r="K121" s="3">
+        <v>16</v>
+      </c>
+      <c r="L121" s="2">
+        <v>14</v>
+      </c>
+      <c r="M121" s="2">
+        <v>45</v>
+      </c>
+      <c r="N121" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A122" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B122" s="5">
+        <v>2018</v>
+      </c>
+      <c r="C122" s="3">
+        <v>7</v>
+      </c>
+      <c r="D122" s="3">
+        <v>16</v>
+      </c>
+      <c r="E122" s="3">
+        <v>15</v>
+      </c>
+      <c r="F122" s="3">
+        <v>8</v>
+      </c>
+      <c r="G122" s="3">
+        <v>8</v>
+      </c>
+      <c r="H122" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I122" s="5">
+        <v>2018</v>
+      </c>
+      <c r="J122" s="3">
+        <v>7</v>
+      </c>
+      <c r="K122" s="3">
+        <v>16</v>
+      </c>
+      <c r="L122" s="3">
+        <v>15</v>
+      </c>
+      <c r="M122" s="3">
+        <v>11</v>
+      </c>
+      <c r="N122" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A123" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B123" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C123" s="3">
+        <v>7</v>
+      </c>
+      <c r="D123" s="3">
+        <v>16</v>
+      </c>
+      <c r="E123" s="2">
+        <v>15</v>
+      </c>
+      <c r="F123" s="2">
+        <v>11</v>
+      </c>
+      <c r="G123" s="2">
+        <v>35</v>
+      </c>
+      <c r="H123" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I123" s="1">
+        <v>2018</v>
+      </c>
+      <c r="J123" s="3">
+        <v>7</v>
+      </c>
+      <c r="K123" s="3">
+        <v>16</v>
+      </c>
+      <c r="L123" s="2">
+        <v>15</v>
+      </c>
+      <c r="M123" s="2">
+        <v>14</v>
+      </c>
+      <c r="N123" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A124" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B124" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C124" s="3">
+        <v>7</v>
+      </c>
+      <c r="D124" s="3">
+        <v>16</v>
+      </c>
+      <c r="E124" s="2">
+        <v>15</v>
+      </c>
+      <c r="F124" s="2">
+        <v>14</v>
+      </c>
+      <c r="G124" s="2">
+        <v>39</v>
+      </c>
+      <c r="H124" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I124" s="1">
+        <v>2018</v>
+      </c>
+      <c r="J124" s="3">
+        <v>7</v>
+      </c>
+      <c r="K124" s="3">
+        <v>16</v>
+      </c>
+      <c r="L124" s="2">
+        <v>15</v>
+      </c>
+      <c r="M124" s="2">
+        <v>19</v>
+      </c>
+      <c r="N124" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A125" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B125" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C125" s="3">
+        <v>7</v>
+      </c>
+      <c r="D125" s="3">
+        <v>16</v>
+      </c>
+      <c r="E125" s="2">
+        <v>15</v>
+      </c>
+      <c r="F125" s="2">
+        <v>20</v>
+      </c>
+      <c r="G125" s="2">
+        <v>8</v>
+      </c>
+      <c r="H125" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I125" s="1">
+        <v>2018</v>
+      </c>
+      <c r="J125" s="3">
+        <v>7</v>
+      </c>
+      <c r="K125" s="3">
+        <v>16</v>
+      </c>
+      <c r="L125" s="2">
+        <v>15</v>
+      </c>
+      <c r="M125" s="2">
+        <v>22</v>
+      </c>
+      <c r="N125" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A126" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B126" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C126" s="3">
+        <v>7</v>
+      </c>
+      <c r="D126" s="3">
+        <v>16</v>
+      </c>
+      <c r="E126" s="2">
+        <v>15</v>
+      </c>
+      <c r="F126" s="2">
+        <v>22</v>
+      </c>
+      <c r="G126" s="2">
+        <v>24</v>
+      </c>
+      <c r="H126" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I126" s="1">
+        <v>2018</v>
+      </c>
+      <c r="J126" s="3">
+        <v>7</v>
+      </c>
+      <c r="K126" s="3">
+        <v>16</v>
+      </c>
+      <c r="L126" s="2">
+        <v>15</v>
+      </c>
+      <c r="M126" s="2">
+        <v>27</v>
+      </c>
+      <c r="N126" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A127" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B127" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C127" s="3">
+        <v>7</v>
+      </c>
+      <c r="D127" s="3">
+        <v>16</v>
+      </c>
+      <c r="E127" s="2">
+        <v>15</v>
+      </c>
+      <c r="F127" s="2">
+        <v>27</v>
+      </c>
+      <c r="G127" s="2">
+        <v>33</v>
+      </c>
+      <c r="H127" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I127" s="1">
+        <v>2018</v>
+      </c>
+      <c r="J127" s="3">
+        <v>7</v>
+      </c>
+      <c r="K127" s="3">
+        <v>16</v>
+      </c>
+      <c r="L127" s="2">
+        <v>15</v>
+      </c>
+      <c r="M127" s="2">
+        <v>28</v>
+      </c>
+      <c r="N127" s="2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A128" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B128" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C128" s="3">
+        <v>7</v>
+      </c>
+      <c r="D128" s="3">
+        <v>16</v>
+      </c>
+      <c r="E128" s="2">
+        <v>15</v>
+      </c>
+      <c r="F128" s="2">
+        <v>28</v>
+      </c>
+      <c r="G128" s="2">
+        <v>58</v>
+      </c>
+      <c r="H128" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I128" s="1">
+        <v>2018</v>
+      </c>
+      <c r="J128" s="3">
+        <v>7</v>
+      </c>
+      <c r="K128" s="3">
+        <v>16</v>
+      </c>
+      <c r="L128" s="2">
+        <v>15</v>
+      </c>
+      <c r="M128" s="2">
+        <v>31</v>
+      </c>
+      <c r="N128" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="129" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A129" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B129" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C129" s="3">
+        <v>7</v>
+      </c>
+      <c r="D129" s="3">
+        <v>16</v>
+      </c>
+      <c r="E129" s="2">
+        <v>15</v>
+      </c>
+      <c r="F129" s="2">
+        <v>32</v>
+      </c>
+      <c r="G129" s="2">
+        <v>36</v>
+      </c>
+      <c r="H129" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I129" s="1">
+        <v>2018</v>
+      </c>
+      <c r="J129" s="3">
+        <v>7</v>
+      </c>
+      <c r="K129" s="3">
+        <v>16</v>
+      </c>
+      <c r="L129" s="2">
+        <v>15</v>
+      </c>
+      <c r="M129" s="2">
+        <v>40</v>
+      </c>
+      <c r="N129" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A130" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B130" s="5">
+        <v>2018</v>
+      </c>
+      <c r="C130" s="3">
+        <v>7</v>
+      </c>
+      <c r="D130" s="3">
+        <v>17</v>
+      </c>
+      <c r="E130" s="3">
+        <v>9</v>
+      </c>
+      <c r="F130" s="3">
+        <v>41</v>
+      </c>
+      <c r="G130" s="3">
+        <v>25</v>
+      </c>
+      <c r="H130" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I130" s="5">
+        <v>2018</v>
+      </c>
+      <c r="J130" s="3">
+        <v>7</v>
+      </c>
+      <c r="K130" s="3">
+        <v>17</v>
+      </c>
+      <c r="L130" s="3">
+        <v>9</v>
+      </c>
+      <c r="M130" s="3">
+        <v>44</v>
+      </c>
+      <c r="N130" s="3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="131" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A131" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B131" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C131" s="2">
+        <v>7</v>
+      </c>
+      <c r="D131" s="3">
+        <v>17</v>
+      </c>
+      <c r="E131" s="2">
+        <v>9</v>
+      </c>
+      <c r="F131" s="2">
+        <v>44</v>
+      </c>
+      <c r="G131" s="2">
+        <v>50</v>
+      </c>
+      <c r="H131" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I131" s="1">
+        <v>2018</v>
+      </c>
+      <c r="J131" s="2">
+        <v>7</v>
+      </c>
+      <c r="K131" s="3">
+        <v>17</v>
+      </c>
+      <c r="L131" s="2">
+        <v>9</v>
+      </c>
+      <c r="M131" s="2">
+        <v>48</v>
+      </c>
+      <c r="N131" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="132" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A132" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B132" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C132" s="2">
+        <v>7</v>
+      </c>
+      <c r="D132" s="3">
+        <v>17</v>
+      </c>
+      <c r="E132" s="2">
+        <v>9</v>
+      </c>
+      <c r="F132" s="2">
+        <v>48</v>
+      </c>
+      <c r="G132" s="2">
+        <v>51</v>
+      </c>
+      <c r="H132" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I132" s="1">
+        <v>2018</v>
+      </c>
+      <c r="J132" s="2">
+        <v>7</v>
+      </c>
+      <c r="K132" s="3">
+        <v>17</v>
+      </c>
+      <c r="L132" s="2">
+        <v>9</v>
+      </c>
+      <c r="M132" s="2">
+        <v>54</v>
+      </c>
+      <c r="N132" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="133" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A133" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B133" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C133" s="2">
+        <v>7</v>
+      </c>
+      <c r="D133" s="3">
+        <v>17</v>
+      </c>
+      <c r="E133" s="2">
+        <v>9</v>
+      </c>
+      <c r="F133" s="2">
+        <v>54</v>
+      </c>
+      <c r="G133" s="2">
+        <v>19</v>
+      </c>
+      <c r="H133" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I133" s="1">
+        <v>2018</v>
+      </c>
+      <c r="J133" s="2">
+        <v>7</v>
+      </c>
+      <c r="K133" s="3">
+        <v>17</v>
+      </c>
+      <c r="L133" s="2">
+        <v>9</v>
+      </c>
+      <c r="M133" s="2">
+        <v>57</v>
+      </c>
+      <c r="N133" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="134" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A134" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B134" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C134" s="2">
+        <v>7</v>
+      </c>
+      <c r="D134" s="3">
+        <v>17</v>
+      </c>
+      <c r="E134" s="2">
+        <v>9</v>
+      </c>
+      <c r="F134" s="2">
+        <v>58</v>
+      </c>
+      <c r="G134" s="2">
+        <v>9</v>
+      </c>
+      <c r="H134" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I134" s="1">
+        <v>2018</v>
+      </c>
+      <c r="J134" s="2">
+        <v>7</v>
+      </c>
+      <c r="K134" s="3">
+        <v>17</v>
+      </c>
+      <c r="L134" s="2">
+        <v>10</v>
+      </c>
+      <c r="M134" s="2">
+        <v>3</v>
+      </c>
+      <c r="N134" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="135" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A135" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B135" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C135" s="2">
+        <v>7</v>
+      </c>
+      <c r="D135" s="3">
+        <v>17</v>
+      </c>
+      <c r="E135" s="2">
+        <v>10</v>
+      </c>
+      <c r="F135" s="2">
+        <v>3</v>
+      </c>
+      <c r="G135" s="2">
+        <v>15</v>
+      </c>
+      <c r="H135" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I135" s="1">
+        <v>2018</v>
+      </c>
+      <c r="J135" s="2">
+        <v>7</v>
+      </c>
+      <c r="K135" s="3">
+        <v>17</v>
+      </c>
+      <c r="L135" s="2">
+        <v>10</v>
+      </c>
+      <c r="M135" s="2">
+        <v>4</v>
+      </c>
+      <c r="N135" s="2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="136" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A136" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B136" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C136" s="2">
+        <v>7</v>
+      </c>
+      <c r="D136" s="3">
+        <v>17</v>
+      </c>
+      <c r="E136" s="2">
+        <v>10</v>
+      </c>
+      <c r="F136" s="2">
+        <v>6</v>
+      </c>
+      <c r="G136" s="2">
+        <v>33</v>
+      </c>
+      <c r="H136" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I136" s="1">
+        <v>2018</v>
+      </c>
+      <c r="J136" s="2">
+        <v>7</v>
+      </c>
+      <c r="K136" s="3">
+        <v>17</v>
+      </c>
+      <c r="L136" s="2">
+        <v>10</v>
+      </c>
+      <c r="M136" s="2">
+        <v>8</v>
+      </c>
+      <c r="N136" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="137" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A137" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B137" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C137" s="2">
+        <v>7</v>
+      </c>
+      <c r="D137" s="3">
+        <v>17</v>
+      </c>
+      <c r="E137" s="2">
+        <v>10</v>
+      </c>
+      <c r="F137" s="2">
+        <v>10</v>
+      </c>
+      <c r="G137" s="2">
+        <v>14</v>
+      </c>
+      <c r="H137" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I137" s="1">
+        <v>2018</v>
+      </c>
+      <c r="J137" s="2">
+        <v>7</v>
+      </c>
+      <c r="K137" s="3">
+        <v>17</v>
+      </c>
+      <c r="L137" s="2">
+        <v>10</v>
+      </c>
+      <c r="M137" s="2">
+        <v>18</v>
+      </c>
+      <c r="N137" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A138" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B138" s="5">
+        <v>2018</v>
+      </c>
+      <c r="C138" s="3">
+        <v>7</v>
+      </c>
+      <c r="D138" s="3">
+        <v>17</v>
+      </c>
+      <c r="E138" s="3">
+        <v>11</v>
+      </c>
+      <c r="F138" s="3">
+        <v>36</v>
+      </c>
+      <c r="G138" s="3">
+        <v>13</v>
+      </c>
+      <c r="H138" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I138" s="5">
+        <v>2018</v>
+      </c>
+      <c r="J138" s="3">
+        <v>7</v>
+      </c>
+      <c r="K138" s="3">
+        <v>17</v>
+      </c>
+      <c r="L138" s="3">
+        <v>11</v>
+      </c>
+      <c r="M138" s="3">
+        <v>39</v>
+      </c>
+      <c r="N138" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="139" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A139" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B139" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C139" s="2">
+        <v>7</v>
+      </c>
+      <c r="D139" s="3">
+        <v>17</v>
+      </c>
+      <c r="E139" s="2">
+        <v>11</v>
+      </c>
+      <c r="F139" s="2">
+        <v>39</v>
+      </c>
+      <c r="G139" s="2">
+        <v>46</v>
+      </c>
+      <c r="H139" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I139" s="1">
+        <v>2018</v>
+      </c>
+      <c r="J139" s="2">
+        <v>7</v>
+      </c>
+      <c r="K139" s="3">
+        <v>17</v>
+      </c>
+      <c r="L139" s="2">
+        <v>11</v>
+      </c>
+      <c r="M139" s="2">
+        <v>43</v>
+      </c>
+      <c r="N139" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="140" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A140" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B140" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C140" s="2">
+        <v>7</v>
+      </c>
+      <c r="D140" s="3">
+        <v>17</v>
+      </c>
+      <c r="E140" s="2">
+        <v>11</v>
+      </c>
+      <c r="F140" s="2">
+        <v>43</v>
+      </c>
+      <c r="G140" s="2">
+        <v>39</v>
+      </c>
+      <c r="H140" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I140" s="1">
+        <v>2018</v>
+      </c>
+      <c r="J140" s="2">
+        <v>7</v>
+      </c>
+      <c r="K140" s="3">
+        <v>17</v>
+      </c>
+      <c r="L140" s="2">
+        <v>11</v>
+      </c>
+      <c r="M140" s="2">
+        <v>48</v>
+      </c>
+      <c r="N140" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="141" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A141" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B141" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C141" s="2">
+        <v>7</v>
+      </c>
+      <c r="D141" s="3">
+        <v>17</v>
+      </c>
+      <c r="E141" s="2">
+        <v>11</v>
+      </c>
+      <c r="F141" s="2">
+        <v>48</v>
+      </c>
+      <c r="G141" s="2">
+        <v>55</v>
+      </c>
+      <c r="H141" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I141" s="1">
+        <v>2018</v>
+      </c>
+      <c r="J141" s="2">
+        <v>7</v>
+      </c>
+      <c r="K141" s="3">
+        <v>17</v>
+      </c>
+      <c r="L141" s="2">
+        <v>11</v>
+      </c>
+      <c r="M141" s="2">
+        <v>52</v>
+      </c>
+      <c r="N141" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="142" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A142" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B142" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C142" s="2">
+        <v>7</v>
+      </c>
+      <c r="D142" s="3">
+        <v>17</v>
+      </c>
+      <c r="E142" s="2">
+        <v>11</v>
+      </c>
+      <c r="F142" s="2">
+        <v>52</v>
+      </c>
+      <c r="G142" s="2">
+        <v>29</v>
+      </c>
+      <c r="H142" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I142" s="1">
+        <v>2018</v>
+      </c>
+      <c r="J142" s="2">
+        <v>7</v>
+      </c>
+      <c r="K142" s="3">
+        <v>17</v>
+      </c>
+      <c r="L142" s="2">
+        <v>11</v>
+      </c>
+      <c r="M142" s="2">
+        <v>57</v>
+      </c>
+      <c r="N142" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="143" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A143" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B143" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C143" s="2">
+        <v>7</v>
+      </c>
+      <c r="D143" s="3">
+        <v>17</v>
+      </c>
+      <c r="E143" s="2">
+        <v>11</v>
+      </c>
+      <c r="F143" s="2">
+        <v>57</v>
+      </c>
+      <c r="G143" s="2">
+        <v>35</v>
+      </c>
+      <c r="H143" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I143" s="1">
+        <v>2018</v>
+      </c>
+      <c r="J143" s="2">
+        <v>7</v>
+      </c>
+      <c r="K143" s="3">
+        <v>17</v>
+      </c>
+      <c r="L143" s="2">
+        <v>11</v>
+      </c>
+      <c r="M143" s="2">
+        <v>59</v>
+      </c>
+      <c r="N143" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="144" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A144" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B144" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C144" s="2">
+        <v>7</v>
+      </c>
+      <c r="D144" s="3">
+        <v>17</v>
+      </c>
+      <c r="E144" s="2">
+        <v>12</v>
+      </c>
+      <c r="F144" s="2">
+        <v>2</v>
+      </c>
+      <c r="G144" s="2">
+        <v>0</v>
+      </c>
+      <c r="H144" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I144" s="1">
+        <v>2018</v>
+      </c>
+      <c r="J144" s="2">
+        <v>7</v>
+      </c>
+      <c r="K144" s="3">
+        <v>17</v>
+      </c>
+      <c r="L144" s="2">
+        <v>12</v>
+      </c>
+      <c r="M144" s="2">
+        <v>3</v>
+      </c>
+      <c r="N144" s="2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="145" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A145" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B145" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C145" s="2">
+        <v>7</v>
+      </c>
+      <c r="D145" s="3">
+        <v>17</v>
+      </c>
+      <c r="E145" s="2">
+        <v>12</v>
+      </c>
+      <c r="F145" s="2">
+        <v>5</v>
+      </c>
+      <c r="G145" s="2">
+        <v>25</v>
+      </c>
+      <c r="H145" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I145" s="1">
+        <v>2018</v>
+      </c>
+      <c r="J145" s="2">
+        <v>7</v>
+      </c>
+      <c r="K145" s="3">
+        <v>17</v>
+      </c>
+      <c r="L145" s="2">
+        <v>12</v>
+      </c>
+      <c r="M145" s="2">
+        <v>12</v>
+      </c>
+      <c r="N145" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A146" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B146" s="5">
+        <v>2018</v>
+      </c>
+      <c r="C146" s="3">
+        <v>7</v>
+      </c>
+      <c r="D146" s="3">
+        <v>19</v>
+      </c>
+      <c r="E146" s="3">
+        <v>14</v>
+      </c>
+      <c r="F146" s="3">
+        <v>37</v>
+      </c>
+      <c r="G146" s="3">
+        <v>9</v>
+      </c>
+      <c r="H146" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I146" s="5">
+        <v>2018</v>
+      </c>
+      <c r="J146" s="3">
+        <v>7</v>
+      </c>
+      <c r="K146" s="3">
+        <v>19</v>
+      </c>
+      <c r="L146" s="3">
+        <v>14</v>
+      </c>
+      <c r="M146" s="3">
+        <v>40</v>
+      </c>
+      <c r="N146" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="147" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A147" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B147" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C147" s="2">
+        <v>7</v>
+      </c>
+      <c r="D147" s="3">
+        <v>19</v>
+      </c>
+      <c r="E147" s="2">
+        <v>14</v>
+      </c>
+      <c r="F147" s="2">
+        <v>40</v>
+      </c>
+      <c r="G147" s="2">
+        <v>40</v>
+      </c>
+      <c r="H147" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I147" s="1">
+        <v>2018</v>
+      </c>
+      <c r="J147" s="2">
+        <v>7</v>
+      </c>
+      <c r="K147" s="3">
+        <v>19</v>
+      </c>
+      <c r="L147" s="2">
+        <v>14</v>
+      </c>
+      <c r="M147" s="2">
+        <v>43</v>
+      </c>
+      <c r="N147" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="148" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A148" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B148" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C148" s="2">
+        <v>7</v>
+      </c>
+      <c r="D148" s="3">
+        <v>19</v>
+      </c>
+      <c r="E148" s="2">
+        <v>14</v>
+      </c>
+      <c r="F148" s="2">
+        <v>44</v>
+      </c>
+      <c r="G148" s="2">
+        <v>5</v>
+      </c>
+      <c r="H148" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I148" s="1">
+        <v>2018</v>
+      </c>
+      <c r="J148" s="2">
+        <v>7</v>
+      </c>
+      <c r="K148" s="3">
+        <v>19</v>
+      </c>
+      <c r="L148" s="2">
+        <v>14</v>
+      </c>
+      <c r="M148" s="2">
+        <v>49</v>
+      </c>
+      <c r="N148" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="149" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A149" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B149" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C149" s="2">
+        <v>7</v>
+      </c>
+      <c r="D149" s="3">
+        <v>19</v>
+      </c>
+      <c r="E149" s="2">
+        <v>14</v>
+      </c>
+      <c r="F149" s="2">
+        <v>49</v>
+      </c>
+      <c r="G149" s="2">
+        <v>20</v>
+      </c>
+      <c r="H149" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I149" s="1">
+        <v>2018</v>
+      </c>
+      <c r="J149" s="2">
+        <v>7</v>
+      </c>
+      <c r="K149" s="3">
+        <v>19</v>
+      </c>
+      <c r="L149" s="2">
+        <v>14</v>
+      </c>
+      <c r="M149" s="2">
+        <v>52</v>
+      </c>
+      <c r="N149" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="150" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A150" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B150" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C150" s="2">
+        <v>7</v>
+      </c>
+      <c r="D150" s="3">
+        <v>19</v>
+      </c>
+      <c r="E150" s="2">
+        <v>14</v>
+      </c>
+      <c r="F150" s="2">
+        <v>52</v>
+      </c>
+      <c r="G150" s="2">
+        <v>29</v>
+      </c>
+      <c r="H150" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I150" s="1">
+        <v>2018</v>
+      </c>
+      <c r="J150" s="2">
+        <v>7</v>
+      </c>
+      <c r="K150" s="3">
+        <v>19</v>
+      </c>
+      <c r="L150" s="2">
+        <v>14</v>
+      </c>
+      <c r="M150" s="2">
+        <v>57</v>
+      </c>
+      <c r="N150" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="151" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A151" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B151" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C151" s="2">
+        <v>7</v>
+      </c>
+      <c r="D151" s="3">
+        <v>19</v>
+      </c>
+      <c r="E151" s="2">
+        <v>14</v>
+      </c>
+      <c r="F151" s="2">
+        <v>57</v>
+      </c>
+      <c r="G151" s="2">
+        <v>28</v>
+      </c>
+      <c r="H151" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I151" s="1">
+        <v>2018</v>
+      </c>
+      <c r="J151" s="2">
+        <v>7</v>
+      </c>
+      <c r="K151" s="3">
+        <v>19</v>
+      </c>
+      <c r="L151" s="2">
+        <v>14</v>
+      </c>
+      <c r="M151" s="2">
+        <v>58</v>
+      </c>
+      <c r="N151" s="2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="152" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A152" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B152" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C152" s="2">
+        <v>7</v>
+      </c>
+      <c r="D152" s="3">
+        <v>19</v>
+      </c>
+      <c r="E152" s="2">
+        <v>15</v>
+      </c>
+      <c r="F152" s="2">
+        <v>0</v>
+      </c>
+      <c r="G152" s="2">
+        <v>35</v>
+      </c>
+      <c r="H152" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I152" s="1">
+        <v>2018</v>
+      </c>
+      <c r="J152" s="2">
+        <v>7</v>
+      </c>
+      <c r="K152" s="3">
+        <v>19</v>
+      </c>
+      <c r="L152" s="2">
+        <v>15</v>
+      </c>
+      <c r="M152" s="2">
+        <v>2</v>
+      </c>
+      <c r="N152" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="153" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A153" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B153" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C153" s="2">
+        <v>7</v>
+      </c>
+      <c r="D153" s="3">
+        <v>19</v>
+      </c>
+      <c r="E153" s="2">
+        <v>15</v>
+      </c>
+      <c r="F153" s="2">
+        <v>4</v>
+      </c>
+      <c r="G153" s="2">
+        <v>15</v>
+      </c>
+      <c r="H153" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I153" s="1">
+        <v>2018</v>
+      </c>
+      <c r="J153" s="2">
+        <v>7</v>
+      </c>
+      <c r="K153" s="3">
+        <v>19</v>
+      </c>
+      <c r="L153" s="2">
+        <v>15</v>
+      </c>
+      <c r="M153" s="2">
+        <v>11</v>
+      </c>
+      <c r="N153" s="2">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
